--- a/SCTestData/TestData.xlsx
+++ b/SCTestData/TestData.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Pasword</t>
   </si>
@@ -150,6 +150,24 @@
   </si>
   <si>
     <t>WorkGroup1540808725081</t>
+  </si>
+  <si>
+    <t>UserName1540891228096</t>
+  </si>
+  <si>
+    <t>WorkGroup1540891352847</t>
+  </si>
+  <si>
+    <t>UserName1540892116953</t>
+  </si>
+  <si>
+    <t>WorkGroup1540892265445</t>
+  </si>
+  <si>
+    <t>UserName1540893075711</t>
+  </si>
+  <si>
+    <t>WorkGroup1540893191201</t>
   </si>
 </sst>
 </file>
@@ -523,10 +541,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/SCTestData/TestData.xlsx
+++ b/SCTestData/TestData.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Pasword</t>
   </si>
@@ -168,6 +168,48 @@
   </si>
   <si>
     <t>WorkGroup1540893191201</t>
+  </si>
+  <si>
+    <t>UserName1540976344880</t>
+  </si>
+  <si>
+    <t>WorkGroup1540976457499</t>
+  </si>
+  <si>
+    <t>UserName1540976580071</t>
+  </si>
+  <si>
+    <t>WorkGroup1540976727287</t>
+  </si>
+  <si>
+    <t>UserName1540976809278</t>
+  </si>
+  <si>
+    <t>WorkGroup1540976951397</t>
+  </si>
+  <si>
+    <t>UserName1540977097924</t>
+  </si>
+  <si>
+    <t>WorkGroup1540977258129</t>
+  </si>
+  <si>
+    <t>UserName1540977630031</t>
+  </si>
+  <si>
+    <t>WorkGroup1540977745776</t>
+  </si>
+  <si>
+    <t>UserName1540978490924</t>
+  </si>
+  <si>
+    <t>WorkGroup1540978663356</t>
+  </si>
+  <si>
+    <t>UserName1540979517441</t>
+  </si>
+  <si>
+    <t>WorkGroup1540979660118</t>
   </si>
 </sst>
 </file>
@@ -541,10 +583,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/SCTestData/TestData.xlsx
+++ b/SCTestData/TestData.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Pasword</t>
   </si>
@@ -210,6 +210,45 @@
   </si>
   <si>
     <t>WorkGroup1540979660118</t>
+  </si>
+  <si>
+    <t>UserName1541053428883</t>
+  </si>
+  <si>
+    <t>UserName1541053522442</t>
+  </si>
+  <si>
+    <t>UserName1541053553045</t>
+  </si>
+  <si>
+    <t>WorkGroup1541053567362</t>
+  </si>
+  <si>
+    <t>WorkGroup1541053714947</t>
+  </si>
+  <si>
+    <t>UserName1541054568997</t>
+  </si>
+  <si>
+    <t>WorkGroup1541054708878</t>
+  </si>
+  <si>
+    <t>UserName1541054748719</t>
+  </si>
+  <si>
+    <t>WorkGroup1541054883888</t>
+  </si>
+  <si>
+    <t>UserName1541055491950</t>
+  </si>
+  <si>
+    <t>UserName1541055641222</t>
+  </si>
+  <si>
+    <t>WorkGroup1541055698459</t>
+  </si>
+  <si>
+    <t>WorkGroup1541055822256</t>
   </si>
 </sst>
 </file>
@@ -583,10 +622,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/SCTestData/TestData.xlsx
+++ b/SCTestData/TestData.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>Pasword</t>
   </si>
@@ -249,6 +249,18 @@
   </si>
   <si>
     <t>WorkGroup1541055822256</t>
+  </si>
+  <si>
+    <t>UserName1542879668278</t>
+  </si>
+  <si>
+    <t>WorkGroup1542879828578</t>
+  </si>
+  <si>
+    <t>UserName1542882306701</t>
+  </si>
+  <si>
+    <t>WorkGroup1542882450361</t>
   </si>
 </sst>
 </file>
@@ -622,10 +634,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/SCTestData/TestData.xlsx
+++ b/SCTestData/TestData.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>Pasword</t>
   </si>
@@ -261,6 +261,54 @@
   </si>
   <si>
     <t>WorkGroup1542882450361</t>
+  </si>
+  <si>
+    <t>UserName1543576861178</t>
+  </si>
+  <si>
+    <t>WorkGroup1543577134889</t>
+  </si>
+  <si>
+    <t>UserName1543580096831</t>
+  </si>
+  <si>
+    <t>WorkGroup1543580676411</t>
+  </si>
+  <si>
+    <t>UserName1543819894979</t>
+  </si>
+  <si>
+    <t>UserName1544005736015</t>
+  </si>
+  <si>
+    <t>UserName1544184782087</t>
+  </si>
+  <si>
+    <t>WorkGroup1544185685210</t>
+  </si>
+  <si>
+    <t>UserName1544520707975</t>
+  </si>
+  <si>
+    <t>UserName1544521159098</t>
+  </si>
+  <si>
+    <t>WorkGroup1544521234286</t>
+  </si>
+  <si>
+    <t>WorkGroup1544521342528</t>
+  </si>
+  <si>
+    <t>UserName1544521609953</t>
+  </si>
+  <si>
+    <t>WorkGroup1544521675851</t>
+  </si>
+  <si>
+    <t>UserName1544522223746</t>
+  </si>
+  <si>
+    <t>WorkGroup1544522407784</t>
   </si>
 </sst>
 </file>
@@ -634,10 +682,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/SCTestData/TestData.xlsx
+++ b/SCTestData/TestData.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>Pasword</t>
   </si>
@@ -309,6 +309,12 @@
   </si>
   <si>
     <t>WorkGroup1544522407784</t>
+  </si>
+  <si>
+    <t>UserName1547449257053</t>
+  </si>
+  <si>
+    <t>WorkGroup1547449726225</t>
   </si>
 </sst>
 </file>
@@ -682,10 +688,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/SCTestData/TestData.xlsx
+++ b/SCTestData/TestData.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>Pasword</t>
   </si>
@@ -315,6 +315,18 @@
   </si>
   <si>
     <t>WorkGroup1547449726225</t>
+  </si>
+  <si>
+    <t>UserName1551090484881</t>
+  </si>
+  <si>
+    <t>WorkGroup1551090662155</t>
+  </si>
+  <si>
+    <t>UserName1551346091224</t>
+  </si>
+  <si>
+    <t>WorkGroup1551346328646</t>
   </si>
 </sst>
 </file>
@@ -688,10 +700,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
